--- a/data/mallows_utilities_voters=100_projects=6.xlsx
+++ b/data/mallows_utilities_voters=100_projects=6.xlsx
@@ -473,22 +473,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
         <v>35</v>
       </c>
-      <c r="D2" t="n">
-        <v>28</v>
-      </c>
-      <c r="E2" t="n">
-        <v>93</v>
-      </c>
-      <c r="F2" t="n">
-        <v>75</v>
-      </c>
       <c r="G2" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>41</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>83</v>
+      </c>
+      <c r="G3" t="n">
         <v>52</v>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>57</v>
-      </c>
-      <c r="F3" t="n">
-        <v>32</v>
-      </c>
-      <c r="G3" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -548,22 +548,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E5" t="n">
         <v>25</v>
       </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>74</v>
-      </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G5" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -573,22 +573,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="E6" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G6" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -598,22 +598,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G7" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -623,22 +623,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G8" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G9" t="n">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F10" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G10" t="n">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45</v>
+      </c>
+      <c r="D11" t="n">
+        <v>84</v>
+      </c>
+      <c r="E11" t="n">
+        <v>78</v>
+      </c>
+      <c r="F11" t="n">
+        <v>86</v>
+      </c>
+      <c r="G11" t="n">
         <v>50</v>
-      </c>
-      <c r="C11" t="n">
-        <v>27</v>
-      </c>
-      <c r="D11" t="n">
-        <v>36</v>
-      </c>
-      <c r="E11" t="n">
-        <v>74</v>
-      </c>
-      <c r="F11" t="n">
-        <v>47</v>
-      </c>
-      <c r="G11" t="n">
-        <v>99</v>
       </c>
     </row>
     <row r="12">
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E12" t="n">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G12" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -748,22 +748,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="G13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G14" t="n">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -798,22 +798,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G15" t="n">
-        <v>92</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>62</v>
+      </c>
+      <c r="E16" t="n">
         <v>54</v>
       </c>
-      <c r="D16" t="n">
-        <v>22</v>
-      </c>
-      <c r="E16" t="n">
-        <v>77</v>
-      </c>
       <c r="F16" t="n">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="G16" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -851,19 +851,19 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F17" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G17" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D18" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E18" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="G18" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -898,22 +898,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C19" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G19" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E20" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F20" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G20" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G21" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -973,22 +973,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G22" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">

--- a/data/mallows_utilities_voters=100_projects=6.xlsx
+++ b/data/mallows_utilities_voters=100_projects=6.xlsx
@@ -720,22 +720,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>94</v>
       </c>
       <c r="F2">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -743,22 +743,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>38</v>
+      </c>
+      <c r="G3">
         <v>52</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -766,22 +766,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -789,22 +789,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>84</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -812,22 +812,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -835,22 +835,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E7">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -858,22 +858,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -881,22 +881,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="G9">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -904,22 +904,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E10">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -927,22 +927,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -950,22 +950,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C12">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -973,22 +973,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F13">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -996,22 +996,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="E14">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F14">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1019,22 +1019,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F15">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1042,22 +1042,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F16">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1065,22 +1065,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E17">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1088,22 +1088,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="G18">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1111,22 +1111,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F19">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1134,22 +1134,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D20">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E20">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1157,22 +1157,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G21">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1180,22 +1180,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F22">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G22">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1203,22 +1203,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1226,22 +1226,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1249,22 +1249,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G25">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1272,22 +1272,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D26">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="F26">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="G26">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1295,22 +1295,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E27">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="F27">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G27">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1318,22 +1318,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C28">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F28">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="G28">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1341,22 +1341,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E29">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F29">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1364,22 +1364,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1387,22 +1387,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F31">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G31">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1410,22 +1410,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D32">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E32">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G32">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1433,22 +1433,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E33">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F33">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G33">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1456,22 +1456,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>56</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F34">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G34">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1479,22 +1479,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E35">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F35">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G35">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1502,22 +1502,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E36">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G36">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1525,22 +1525,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D37">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E37">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1548,22 +1548,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C38">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E38">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1571,22 +1571,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E39">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F39">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G39">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1594,22 +1594,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F40">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G40">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1617,22 +1617,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C41">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D41">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E41">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="F41">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="G41">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1640,22 +1640,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E42">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="G42">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1663,22 +1663,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D43">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E43">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="F43">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="G43">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1686,22 +1686,22 @@
         <v>48</v>
       </c>
       <c r="B44">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>87</v>
+      </c>
+      <c r="F44">
         <v>78</v>
       </c>
-      <c r="C44">
-        <v>42</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>23</v>
-      </c>
-      <c r="F44">
-        <v>15</v>
-      </c>
       <c r="G44">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1709,22 +1709,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D45">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="E45">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G45">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1732,22 +1732,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D46">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E46">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F46">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G46">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1755,22 +1755,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D47">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E47">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F47">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G47">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1778,22 +1778,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D48">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E48">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F48">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1801,22 +1801,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D49">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="F49">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1824,22 +1824,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G50">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1847,22 +1847,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C51">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>62</v>
+      </c>
+      <c r="F51">
+        <v>43</v>
+      </c>
+      <c r="G51">
         <v>54</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>79</v>
-      </c>
-      <c r="F51">
-        <v>46</v>
-      </c>
-      <c r="G51">
-        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1870,22 +1870,22 @@
         <v>56</v>
       </c>
       <c r="B52">
+        <v>48</v>
+      </c>
+      <c r="C52">
         <v>92</v>
       </c>
-      <c r="C52">
-        <v>33</v>
-      </c>
       <c r="D52">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F52">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G52">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1893,22 +1893,22 @@
         <v>57</v>
       </c>
       <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>80</v>
+      </c>
+      <c r="E53">
+        <v>29</v>
+      </c>
+      <c r="F53">
         <v>4</v>
       </c>
-      <c r="C53">
-        <v>73</v>
-      </c>
-      <c r="D53">
-        <v>99</v>
-      </c>
-      <c r="E53">
-        <v>86</v>
-      </c>
-      <c r="F53">
-        <v>50</v>
-      </c>
       <c r="G53">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1916,22 +1916,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E54">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1939,22 +1939,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C55">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E55">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="G55">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1962,22 +1962,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D56">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E56">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="G56">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1985,22 +1985,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C57">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D57">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E57">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F57">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G57">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2008,22 +2008,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D58">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E58">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F58">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="G58">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2031,22 +2031,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C59">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D59">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="E59">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F59">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G59">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2054,22 +2054,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C60">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D60">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E60">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F60">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G60">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2077,22 +2077,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D61">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E61">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F61">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="G61">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2100,22 +2100,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="C62">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D62">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E62">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F62">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G62">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2123,19 +2123,19 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D63">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="F63">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2146,22 +2146,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="C64">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D64">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F64">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G64">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2169,22 +2169,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C65">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D65">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G65">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2192,22 +2192,22 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E66">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G66">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2215,22 +2215,22 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C67">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D67">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E67">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="G67">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2238,22 +2238,22 @@
         <v>72</v>
       </c>
       <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68">
         <v>93</v>
       </c>
-      <c r="C68">
-        <v>74</v>
-      </c>
       <c r="D68">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="F68">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G68">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,22 +2261,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C69">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E69">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F69">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G69">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2284,22 +2284,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D70">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E70">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F70">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="G70">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2307,22 +2307,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C71">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D71">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E71">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F71">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2330,22 +2330,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E72">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F72">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G72">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2353,22 +2353,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D73">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E73">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F73">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G73">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2376,22 +2376,22 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C74">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D74">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E74">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F74">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G74">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2399,22 +2399,22 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C75">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D75">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E75">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F75">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G75">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2422,22 +2422,22 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C76">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E76">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F76">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G76">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2445,22 +2445,22 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C77">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D77">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F77">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="G77">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2468,22 +2468,22 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D78">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E78">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F78">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G78">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2491,22 +2491,22 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C79">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="D79">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E79">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F79">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G79">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2514,22 +2514,22 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C80">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E80">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F80">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2537,22 +2537,22 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C81">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D81">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E81">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F81">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G81">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2560,22 +2560,22 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D82">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="F82">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G82">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2583,22 +2583,22 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C83">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D83">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E83">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F83">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G83">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2606,22 +2606,22 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C84">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D84">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E84">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F84">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="G84">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2629,22 +2629,22 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C85">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D85">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E85">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="F85">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G85">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2652,22 +2652,22 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C86">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="E86">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2675,22 +2675,22 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C87">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D87">
+        <v>45</v>
+      </c>
+      <c r="E87">
         <v>31</v>
       </c>
-      <c r="E87">
-        <v>66</v>
-      </c>
       <c r="F87">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G87">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2698,22 +2698,22 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D88">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E88">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F88">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="G88">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2721,22 +2721,22 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E89">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="G89">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2744,22 +2744,22 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C90">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D90">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E90">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F90">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G90">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2767,22 +2767,22 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D91">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F91">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G91">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2790,22 +2790,22 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C92">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D92">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E92">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F92">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G92">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2813,22 +2813,22 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D93">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="E93">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93">
         <v>1</v>
-      </c>
-      <c r="G93">
-        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2836,22 +2836,22 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C94">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D94">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E94">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G94">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2859,22 +2859,22 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D95">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E95">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2882,22 +2882,22 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D96">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E96">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F96">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2905,22 +2905,22 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C97">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E97">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G97">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2928,22 +2928,22 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D98">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E98">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F98">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G98">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2951,22 +2951,22 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C99">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D99">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E99">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F99">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G99">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2974,22 +2974,22 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D100">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E100">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="F100">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="G100">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2997,22 +2997,22 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C101">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D101">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E101">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F101">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G101">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/mallows_utilities_voters=100_projects=6.xlsx
+++ b/data/mallows_utilities_voters=100_projects=6.xlsx
@@ -720,22 +720,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -743,22 +743,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -766,22 +766,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -789,22 +789,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -812,19 +812,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F6">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>84</v>
@@ -835,22 +835,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E7">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -858,22 +858,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -881,22 +881,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C9">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -904,22 +904,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -927,22 +927,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="G11">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -950,22 +950,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D12">
+        <v>52</v>
+      </c>
+      <c r="E12">
         <v>40</v>
-      </c>
-      <c r="E12">
-        <v>74</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -973,22 +973,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -996,22 +996,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C14">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D14">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G14">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1019,22 +1019,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F15">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1042,22 +1042,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1065,22 +1065,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D17">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>77</v>
+      </c>
+      <c r="F17">
         <v>87</v>
       </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>83</v>
-      </c>
       <c r="G17">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1088,22 +1088,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F18">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1111,22 +1111,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1134,22 +1134,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="F20">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1157,22 +1157,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C21">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F21">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G21">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1180,22 +1180,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22">
+        <v>98</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="F22">
         <v>5</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>42</v>
-      </c>
-      <c r="F22">
-        <v>34</v>
-      </c>
       <c r="G22">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1203,22 +1203,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C23">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E23">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1226,22 +1226,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="F24">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G24">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1249,22 +1249,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E25">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F25">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G25">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1272,22 +1272,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C26">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E26">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="F26">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="G26">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1295,22 +1295,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E27">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F27">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G27">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1318,22 +1318,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F28">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G28">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1341,22 +1341,22 @@
         <v>33</v>
       </c>
       <c r="B29">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>76</v>
+      </c>
+      <c r="E29">
         <v>67</v>
       </c>
-      <c r="C29">
-        <v>23</v>
-      </c>
-      <c r="D29">
-        <v>60</v>
-      </c>
-      <c r="E29">
-        <v>80</v>
-      </c>
       <c r="F29">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G29">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1364,22 +1364,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>84</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="E30">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F30">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1387,22 +1387,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C31">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D31">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E31">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F31">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G31">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1410,22 +1410,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C32">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D32">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F32">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1433,22 +1433,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D33">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1456,22 +1456,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F34">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G34">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1479,22 +1479,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C35">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D35">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F35">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G35">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1502,22 +1502,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D36">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E36">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="G36">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1525,22 +1525,22 @@
         <v>41</v>
       </c>
       <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>89</v>
+      </c>
+      <c r="D37">
         <v>26</v>
       </c>
-      <c r="C37">
-        <v>74</v>
-      </c>
-      <c r="D37">
-        <v>65</v>
-      </c>
       <c r="E37">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G37">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1548,22 +1548,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E38">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="F38">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="G38">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1571,22 +1571,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D39">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E39">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F39">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G39">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1594,22 +1594,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D40">
         <v>27</v>
       </c>
       <c r="E40">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="F40">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G40">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1617,22 +1617,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D41">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="F41">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G41">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1640,22 +1640,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C42">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D42">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F42">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="G42">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1663,22 +1663,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C43">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D43">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E43">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F43">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G43">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1686,22 +1686,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F44">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="G44">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1709,22 +1709,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C45">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D45">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G45">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1732,22 +1732,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C46">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D46">
         <v>90</v>
       </c>
       <c r="E46">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F46">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1755,22 +1755,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C47">
+        <v>95</v>
+      </c>
+      <c r="D47">
         <v>94</v>
       </c>
-      <c r="D47">
-        <v>57</v>
-      </c>
       <c r="E47">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="F47">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1778,22 +1778,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C48">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D48">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E48">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="F48">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G48">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1804,19 +1804,19 @@
         <v>4</v>
       </c>
       <c r="C49">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D49">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E49">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G49">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1824,22 +1824,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D50">
         <v>5</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F50">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="G50">
-        <v>89</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1847,22 +1847,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C51">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F51">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G51">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1870,22 +1870,22 @@
         <v>56</v>
       </c>
       <c r="B52">
+        <v>27</v>
+      </c>
+      <c r="C52">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>62</v>
+      </c>
+      <c r="E52">
+        <v>24</v>
+      </c>
+      <c r="F52">
         <v>48</v>
       </c>
-      <c r="C52">
-        <v>92</v>
-      </c>
-      <c r="D52">
-        <v>41</v>
-      </c>
-      <c r="E52">
-        <v>66</v>
-      </c>
-      <c r="F52">
-        <v>61</v>
-      </c>
       <c r="G52">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1893,22 +1893,22 @@
         <v>57</v>
       </c>
       <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>97</v>
+      </c>
+      <c r="D53">
+        <v>93</v>
+      </c>
+      <c r="E53">
+        <v>22</v>
+      </c>
+      <c r="F53">
+        <v>67</v>
+      </c>
+      <c r="G53">
         <v>2</v>
-      </c>
-      <c r="C53">
-        <v>75</v>
-      </c>
-      <c r="D53">
-        <v>80</v>
-      </c>
-      <c r="E53">
-        <v>29</v>
-      </c>
-      <c r="F53">
-        <v>4</v>
-      </c>
-      <c r="G53">
-        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1916,22 +1916,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D54">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E54">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G54">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1939,22 +1939,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D55">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E55">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="F55">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G55">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1962,22 +1962,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C56">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D56">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="E56">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="F56">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="G56">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1985,22 +1985,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C57">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D57">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E57">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F57">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G57">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2008,22 +2008,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>46</v>
       </c>
       <c r="F58">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G58">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2031,22 +2031,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D59">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E59">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2054,22 +2054,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D60">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E60">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F60">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="G60">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2077,22 +2077,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C61">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D61">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F61">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G61">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2100,22 +2100,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C62">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>15</v>
+      </c>
+      <c r="F62">
         <v>59</v>
       </c>
-      <c r="E62">
-        <v>93</v>
-      </c>
-      <c r="F62">
-        <v>19</v>
-      </c>
       <c r="G62">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2123,22 +2123,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63">
+        <v>44</v>
+      </c>
+      <c r="D63">
+        <v>95</v>
+      </c>
+      <c r="E63">
+        <v>86</v>
+      </c>
+      <c r="F63">
+        <v>15</v>
+      </c>
+      <c r="G63">
         <v>50</v>
-      </c>
-      <c r="D63">
-        <v>84</v>
-      </c>
-      <c r="E63">
-        <v>94</v>
-      </c>
-      <c r="F63">
-        <v>70</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2146,22 +2146,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D64">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E64">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F64">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G64">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2169,22 +2169,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="G65">
-        <v>46</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2192,22 +2192,22 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C66">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D66">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E66">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G66">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2215,22 +2215,22 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C67">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D67">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E67">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F67">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="G67">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2238,22 +2238,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C68">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F68">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="G68">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,22 +2261,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C69">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D69">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E69">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F69">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G69">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2284,22 +2284,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="F70">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="G70">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2307,22 +2307,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C71">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D71">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E71">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F71">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G71">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2330,22 +2330,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D72">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E72">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="G72">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2353,22 +2353,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D73">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E73">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="F73">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G73">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2376,22 +2376,22 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D74">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="E74">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F74">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2399,22 +2399,22 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C75">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E75">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F75">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2422,22 +2422,22 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C76">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D76">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E76">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G76">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2445,22 +2445,22 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C77">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F77">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="G77">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2468,22 +2468,22 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C78">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F78">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G78">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2491,22 +2491,22 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C79">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D79">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E79">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F79">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G79">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2514,22 +2514,22 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D80">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G80">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2537,22 +2537,22 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C81">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D81">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E81">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F81">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G81">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2560,22 +2560,22 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D82">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E82">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F82">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G82">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2583,22 +2583,22 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C83">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E83">
+        <v>20</v>
+      </c>
+      <c r="F83">
+        <v>27</v>
+      </c>
+      <c r="G83">
         <v>72</v>
-      </c>
-      <c r="F83">
-        <v>81</v>
-      </c>
-      <c r="G83">
-        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2606,22 +2606,22 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C84">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D84">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E84">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F84">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G84">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2629,22 +2629,22 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C85">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D85">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E85">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="G85">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2652,22 +2652,22 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C86">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D86">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F86">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="G86">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2675,22 +2675,22 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D87">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E87">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F87">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G87">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2698,22 +2698,22 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C88">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D88">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E88">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F88">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G88">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2721,22 +2721,22 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E89">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="F89">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="G89">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2744,22 +2744,22 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D90">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E90">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F90">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G90">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2767,22 +2767,22 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>82</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E91">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F91">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G91">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2790,22 +2790,22 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C92">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D92">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E92">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G92">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2813,22 +2813,22 @@
         <v>97</v>
       </c>
       <c r="B93">
+        <v>27</v>
+      </c>
+      <c r="C93">
+        <v>63</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>81</v>
+      </c>
+      <c r="F93">
         <v>17</v>
       </c>
-      <c r="C93">
-        <v>49</v>
-      </c>
-      <c r="D93">
-        <v>44</v>
-      </c>
-      <c r="E93">
-        <v>18</v>
-      </c>
-      <c r="F93">
-        <v>6</v>
-      </c>
       <c r="G93">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2836,22 +2836,22 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C94">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D94">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E94">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F94">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G94">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2859,22 +2859,22 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D95">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E95">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F95">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G95">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2882,22 +2882,22 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D96">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G96">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2905,22 +2905,22 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C97">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E97">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F97">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G97">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2928,22 +2928,22 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D98">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F98">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G98">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2951,22 +2951,22 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D99">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E99">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F99">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G99">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2974,22 +2974,22 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C100">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D100">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E100">
         <v>25</v>
       </c>
       <c r="F100">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="G100">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2997,22 +2997,22 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C101">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D101">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E101">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F101">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/mallows_utilities_voters=100_projects=6.xlsx
+++ b/data/mallows_utilities_voters=100_projects=6.xlsx
@@ -473,22 +473,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="F3" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -548,22 +548,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -573,22 +573,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="G6" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -598,22 +598,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E7" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F7" t="n">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -623,22 +623,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="E9" t="n">
+        <v>92</v>
+      </c>
+      <c r="F9" t="n">
+        <v>75</v>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>39</v>
-      </c>
-      <c r="G9" t="n">
-        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>52</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
         <v>97</v>
       </c>
-      <c r="C10" t="n">
-        <v>80</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56</v>
-      </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G11" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E12" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F12" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="G12" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -748,22 +748,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C14" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G14" t="n">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -798,22 +798,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C15" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F15" t="n">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C16" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G16" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F17" t="n">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="G17" t="n">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>65</v>
+      </c>
+      <c r="C18" t="n">
+        <v>97</v>
+      </c>
+      <c r="D18" t="n">
         <v>89</v>
       </c>
-      <c r="C18" t="n">
-        <v>35</v>
-      </c>
-      <c r="D18" t="n">
-        <v>83</v>
-      </c>
       <c r="E18" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F18" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -898,22 +898,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E19" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>28</v>
+      </c>
+      <c r="C21" t="n">
         <v>8</v>
       </c>
-      <c r="C21" t="n">
-        <v>72</v>
-      </c>
       <c r="D21" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -973,22 +973,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
+        <v>27</v>
+      </c>
+      <c r="G22" t="n">
         <v>29</v>
-      </c>
-      <c r="G22" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -998,22 +998,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C23" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -1023,22 +1023,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G24" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D25" t="n">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1076,19 +1076,19 @@
         <v>88</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D26" t="n">
+        <v>30</v>
+      </c>
+      <c r="E26" t="n">
         <v>44</v>
       </c>
-      <c r="E26" t="n">
-        <v>23</v>
-      </c>
       <c r="F26" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -1098,22 +1098,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="E27" t="n">
+        <v>80</v>
+      </c>
+      <c r="F27" t="n">
         <v>63</v>
       </c>
-      <c r="F27" t="n">
-        <v>44</v>
-      </c>
       <c r="G27" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E28" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -1148,22 +1148,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F29" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="G29" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -1173,22 +1173,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G30" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -1198,22 +1198,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C31" t="n">
+        <v>49</v>
+      </c>
+      <c r="D31" t="n">
+        <v>45</v>
+      </c>
+      <c r="E31" t="n">
         <v>57</v>
       </c>
-      <c r="D31" t="n">
-        <v>74</v>
-      </c>
-      <c r="E31" t="n">
-        <v>20</v>
-      </c>
       <c r="F31" t="n">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="G31" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F32" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -1248,22 +1248,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D33" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E33" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G33" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1273,22 +1273,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F34" t="n">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="G34" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
@@ -1298,22 +1298,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C35" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D35" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E35" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G35" t="n">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -1323,22 +1323,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C36" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="D36" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F36" t="n">
+        <v>46</v>
+      </c>
+      <c r="G36" t="n">
         <v>26</v>
-      </c>
-      <c r="G36" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C37" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E37" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F37" t="n">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G37" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
@@ -1373,19 +1373,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C38" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E38" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F38" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G38" t="n">
         <v>31</v>
@@ -1398,22 +1398,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D39" t="n">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E39" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F39" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G39" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -1423,22 +1423,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C40" t="n">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D40" t="n">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E40" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F40" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G40" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C41" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E41" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F41" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G41" t="n">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
@@ -1473,22 +1473,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C42" t="n">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D42" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E42" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F42" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G42" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -1498,22 +1498,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C43" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D43" t="n">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E43" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G43" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E44" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F44" t="n">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C45" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="D45" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E45" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F45" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="G45" t="n">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D46" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E46" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F46" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="G46" t="n">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -1598,22 +1598,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E47" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F47" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G47" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E48" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G48" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49">
@@ -1648,22 +1648,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C49" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D49" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E49" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F49" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G49" t="n">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C50" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D50" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E50" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F50" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1698,22 +1698,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C51" t="n">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D51" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E51" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F51" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G51" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
@@ -1723,22 +1723,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D52" t="n">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F52" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G52" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
@@ -1748,22 +1748,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C53" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F53" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -1773,22 +1773,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" t="n">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D54" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F54" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G54" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
@@ -1798,22 +1798,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D55" t="n">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="G55" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="D56" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E56" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F56" t="n">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="G56" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1848,22 +1848,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C57" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E57" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F57" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G57" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D58" t="n">
         <v>75</v>
       </c>
       <c r="E58" t="n">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G58" t="n">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C59" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D59" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E59" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F59" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G59" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D60" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F60" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="G60" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -1948,22 +1948,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D61" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E61" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F61" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C62" t="n">
+        <v>42</v>
+      </c>
+      <c r="D62" t="n">
+        <v>13</v>
+      </c>
+      <c r="E62" t="n">
         <v>63</v>
       </c>
-      <c r="D62" t="n">
+      <c r="F62" t="n">
+        <v>41</v>
+      </c>
+      <c r="G62" t="n">
         <v>30</v>
-      </c>
-      <c r="E62" t="n">
-        <v>57</v>
-      </c>
-      <c r="F62" t="n">
-        <v>15</v>
-      </c>
-      <c r="G62" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="63">
@@ -1998,22 +1998,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C63" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D63" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E63" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F63" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G63" t="n">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
@@ -2023,22 +2023,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C64" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D64" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E64" t="n">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F64" t="n">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G64" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C65" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D65" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E65" t="n">
+        <v>90</v>
+      </c>
+      <c r="F65" t="n">
+        <v>15</v>
+      </c>
+      <c r="G65" t="n">
         <v>19</v>
-      </c>
-      <c r="F65" t="n">
-        <v>33</v>
-      </c>
-      <c r="G65" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="66">
@@ -2073,22 +2073,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D66" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E66" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F66" t="n">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G66" t="n">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
@@ -2098,22 +2098,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C67" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G67" t="n">
-        <v>97</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -2123,22 +2123,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C68" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D68" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E68" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F68" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G68" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69">
@@ -2148,22 +2148,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C69" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D69" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F69" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G69" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70">
@@ -2173,22 +2173,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E70" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F70" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G70" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2198,22 +2198,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C71" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D71" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E71" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F71" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G71" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72">
@@ -2223,22 +2223,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C72" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D72" t="n">
+        <v>48</v>
+      </c>
+      <c r="E72" t="n">
+        <v>29</v>
+      </c>
+      <c r="F72" t="n">
         <v>42</v>
       </c>
-      <c r="E72" t="n">
-        <v>95</v>
-      </c>
-      <c r="F72" t="n">
-        <v>40</v>
-      </c>
       <c r="G72" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -2248,22 +2248,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C73" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D73" t="n">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="F73" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G73" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74">
@@ -2273,22 +2273,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E74" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="G74" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -2298,22 +2298,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C75" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D75" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F75" t="n">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G75" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
@@ -2323,22 +2323,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C76" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D76" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E76" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F76" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C77" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D77" t="n">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E77" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F77" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="G77" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78">
@@ -2373,22 +2373,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="E78" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F78" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
@@ -2398,22 +2398,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D79" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E79" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F79" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="G79" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
@@ -2423,22 +2423,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C80" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E80" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G80" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81">
@@ -2448,22 +2448,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C81" t="n">
+        <v>58</v>
+      </c>
+      <c r="D81" t="n">
+        <v>82</v>
+      </c>
+      <c r="E81" t="n">
         <v>31</v>
       </c>
-      <c r="D81" t="n">
-        <v>14</v>
-      </c>
-      <c r="E81" t="n">
-        <v>30</v>
-      </c>
       <c r="F81" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="G81" t="n">
-        <v>81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C82" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D82" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E82" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F82" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G82" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
@@ -2498,22 +2498,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C83" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D83" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E83" t="n">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="G83" t="n">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D84" t="n">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E84" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F84" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G84" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85">
@@ -2548,22 +2548,22 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C85" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E85" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F85" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G85" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86">
@@ -2573,22 +2573,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C86" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D86" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E86" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G86" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
@@ -2598,22 +2598,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D87" t="n">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="E87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G87" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -2623,22 +2623,22 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C88" t="n">
+        <v>61</v>
+      </c>
+      <c r="D88" t="n">
+        <v>54</v>
+      </c>
+      <c r="E88" t="n">
         <v>23</v>
       </c>
-      <c r="D88" t="n">
-        <v>96</v>
-      </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>52</v>
+      </c>
+      <c r="G88" t="n">
         <v>28</v>
-      </c>
-      <c r="F88" t="n">
-        <v>42</v>
-      </c>
-      <c r="G88" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -2648,22 +2648,22 @@
         </is>
       </c>
       <c r="B89" t="n">
+        <v>6</v>
+      </c>
+      <c r="C89" t="n">
+        <v>29</v>
+      </c>
+      <c r="D89" t="n">
         <v>83</v>
       </c>
-      <c r="C89" t="n">
-        <v>95</v>
-      </c>
-      <c r="D89" t="n">
-        <v>52</v>
-      </c>
       <c r="E89" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F89" t="n">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="G89" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
@@ -2673,22 +2673,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C90" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E90" t="n">
+        <v>99</v>
+      </c>
+      <c r="F90" t="n">
         <v>53</v>
       </c>
-      <c r="F90" t="n">
-        <v>57</v>
-      </c>
       <c r="G90" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
@@ -2698,22 +2698,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F91" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G91" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
@@ -2723,22 +2723,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C92" t="n">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="E92" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G92" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C93" t="n">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D93" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E93" t="n">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="F93" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G93" t="n">
-        <v>94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C94" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D94" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E94" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F94" t="n">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="G94" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
@@ -2798,22 +2798,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D95" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F95" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G95" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
@@ -2823,22 +2823,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C96" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F96" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G96" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -2848,22 +2848,22 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C97" t="n">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E97" t="n">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F97" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>94</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C98" t="n">
+        <v>27</v>
+      </c>
+      <c r="D98" t="n">
+        <v>30</v>
+      </c>
+      <c r="E98" t="n">
+        <v>22</v>
+      </c>
+      <c r="F98" t="n">
+        <v>15</v>
+      </c>
+      <c r="G98" t="n">
         <v>19</v>
-      </c>
-      <c r="D98" t="n">
-        <v>43</v>
-      </c>
-      <c r="E98" t="n">
-        <v>69</v>
-      </c>
-      <c r="F98" t="n">
-        <v>91</v>
-      </c>
-      <c r="G98" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -2898,22 +2898,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C99" t="n">
+        <v>79</v>
+      </c>
+      <c r="D99" t="n">
+        <v>68</v>
+      </c>
+      <c r="E99" t="n">
         <v>15</v>
       </c>
-      <c r="D99" t="n">
-        <v>6</v>
-      </c>
-      <c r="E99" t="n">
-        <v>10</v>
-      </c>
       <c r="F99" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G99" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100">
@@ -2923,22 +2923,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D100" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E100" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F100" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G100" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101">
@@ -2948,22 +2948,22 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C101" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D101" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E101" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F101" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G101" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/mallows_utilities_voters=100_projects=6.xlsx
+++ b/data/mallows_utilities_voters=100_projects=6.xlsx
@@ -720,22 +720,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -743,22 +743,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -766,22 +766,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -789,22 +789,22 @@
         <v>9</v>
       </c>
       <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
         <v>4</v>
-      </c>
-      <c r="C5">
-        <v>74</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>37</v>
-      </c>
-      <c r="F5">
-        <v>42</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -812,22 +812,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="E6">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G6">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -835,22 +835,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C7">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -858,22 +858,22 @@
         <v>12</v>
       </c>
       <c r="B8">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>39</v>
+      </c>
+      <c r="G8">
         <v>3</v>
-      </c>
-      <c r="C8">
-        <v>91</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>21</v>
-      </c>
-      <c r="F8">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -881,22 +881,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -904,22 +904,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="G10">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -927,22 +927,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="F11">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -950,22 +950,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G12">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -973,22 +973,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C13">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -996,22 +996,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="G14">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1019,22 +1019,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E15">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>35</v>
       </c>
       <c r="G15">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1042,22 +1042,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F16">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1065,22 +1065,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C17">
+        <v>88</v>
+      </c>
+      <c r="D17">
+        <v>92</v>
+      </c>
+      <c r="E17">
         <v>65</v>
       </c>
-      <c r="D17">
-        <v>44</v>
-      </c>
-      <c r="E17">
-        <v>77</v>
-      </c>
       <c r="F17">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1088,22 +1088,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C18">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E18">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1111,22 +1111,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1134,22 +1134,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G20">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1157,22 +1157,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="F21">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G21">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1180,22 +1180,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="C22">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E22">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G22">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1203,22 +1203,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C23">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E23">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1226,22 +1226,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D24">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>26</v>
+      </c>
+      <c r="G24">
         <v>57</v>
-      </c>
-      <c r="E24">
-        <v>86</v>
-      </c>
-      <c r="F24">
-        <v>55</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1249,22 +1249,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D25">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1272,22 +1272,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C26">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D26">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F26">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1295,22 +1295,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D27">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E27">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G27">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1318,22 +1318,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C28">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="F28">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G28">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1341,22 +1341,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C29">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D29">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E29">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F29">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G29">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1364,22 +1364,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C30">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D30">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E30">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="F30">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="G30">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1387,22 +1387,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C31">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D31">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F31">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G31">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1410,22 +1410,22 @@
         <v>36</v>
       </c>
       <c r="B32">
+        <v>59</v>
+      </c>
+      <c r="C32">
+        <v>84</v>
+      </c>
+      <c r="D32">
+        <v>87</v>
+      </c>
+      <c r="E32">
         <v>76</v>
       </c>
-      <c r="C32">
-        <v>89</v>
-      </c>
-      <c r="D32">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <v>49</v>
-      </c>
       <c r="F32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1433,22 +1433,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C33">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E33">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F33">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G33">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1456,22 +1456,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1479,22 +1479,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C35">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="G35">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1502,22 +1502,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D36">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F36">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G36">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1525,22 +1525,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C37">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E37">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="F37">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G37">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1548,22 +1548,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C38">
+        <v>92</v>
+      </c>
+      <c r="D38">
+        <v>87</v>
+      </c>
+      <c r="E38">
         <v>12</v>
       </c>
-      <c r="D38">
-        <v>53</v>
-      </c>
-      <c r="E38">
-        <v>30</v>
-      </c>
       <c r="F38">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="G38">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1571,22 +1571,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C39">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E39">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F39">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G39">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1594,22 +1594,22 @@
         <v>44</v>
       </c>
       <c r="B40">
+        <v>93</v>
+      </c>
+      <c r="C40">
+        <v>99</v>
+      </c>
+      <c r="D40">
+        <v>75</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
         <v>73</v>
       </c>
-      <c r="C40">
-        <v>59</v>
-      </c>
-      <c r="D40">
-        <v>27</v>
-      </c>
-      <c r="E40">
-        <v>60</v>
-      </c>
-      <c r="F40">
-        <v>72</v>
-      </c>
       <c r="G40">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1617,22 +1617,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C41">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="D41">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E41">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F41">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G41">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1640,22 +1640,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C42">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D42">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E42">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="F42">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1663,22 +1663,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D43">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G43">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1686,22 +1686,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C44">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F44">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G44">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1709,22 +1709,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1732,22 +1732,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C46">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D46">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E46">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G46">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1755,22 +1755,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C47">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D47">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="E47">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1778,22 +1778,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C48">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D48">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E48">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F48">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G48">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1801,22 +1801,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C49">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D49">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F49">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G49">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1824,22 +1824,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C50">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F50">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="G50">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1847,22 +1847,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C51">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D51">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="F51">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G51">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1870,22 +1870,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C52">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E52">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F52">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1893,22 +1893,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C53">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D53">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="E53">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F53">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1916,22 +1916,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E54">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F54">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1939,22 +1939,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C55">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D55">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E55">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F55">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G55">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1962,22 +1962,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D56">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E56">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="G56">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1985,22 +1985,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C57">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D57">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E57">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G57">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2008,22 +2008,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C58">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="E58">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F58">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G58">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2031,22 +2031,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C59">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F59">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G59">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2054,22 +2054,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C60">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D60">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F60">
         <v>64</v>
       </c>
       <c r="G60">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2077,22 +2077,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C61">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D61">
+        <v>58</v>
+      </c>
+      <c r="E61">
+        <v>21</v>
+      </c>
+      <c r="F61">
         <v>10</v>
       </c>
-      <c r="E61">
-        <v>99</v>
-      </c>
-      <c r="F61">
-        <v>46</v>
-      </c>
       <c r="G61">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2100,22 +2100,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C62">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E62">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F62">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G62">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2123,22 +2123,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C63">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D63">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="F63">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="G63">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2146,22 +2146,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="C64">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D64">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E64">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F64">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G64">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2169,22 +2169,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C65">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D65">
+        <v>86</v>
+      </c>
+      <c r="E65">
+        <v>31</v>
+      </c>
+      <c r="F65">
         <v>6</v>
       </c>
-      <c r="E65">
-        <v>93</v>
-      </c>
-      <c r="F65">
-        <v>83</v>
-      </c>
       <c r="G65">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2192,22 +2192,22 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C66">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D66">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F66">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G66">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2215,22 +2215,22 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="C67">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D67">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G67">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2238,22 +2238,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E68">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F68">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G68">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,22 +2261,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D69">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E69">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F69">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G69">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2284,22 +2284,22 @@
         <v>74</v>
       </c>
       <c r="B70">
+        <v>63</v>
+      </c>
+      <c r="C70">
+        <v>95</v>
+      </c>
+      <c r="D70">
+        <v>56</v>
+      </c>
+      <c r="E70">
+        <v>63</v>
+      </c>
+      <c r="F70">
+        <v>87</v>
+      </c>
+      <c r="G70">
         <v>69</v>
-      </c>
-      <c r="C70">
-        <v>21</v>
-      </c>
-      <c r="D70">
-        <v>8</v>
-      </c>
-      <c r="E70">
-        <v>4</v>
-      </c>
-      <c r="F70">
-        <v>73</v>
-      </c>
-      <c r="G70">
-        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2307,22 +2307,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C71">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E71">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="F71">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="G71">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2330,22 +2330,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C72">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D72">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E72">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F72">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G72">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2353,22 +2353,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C73">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D73">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F73">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G73">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2376,22 +2376,22 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D74">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="G74">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2399,22 +2399,22 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C75">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D75">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E75">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="G75">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2422,22 +2422,22 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C76">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F76">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G76">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2445,22 +2445,22 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C77">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F77">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G77">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2468,22 +2468,22 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D78">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E78">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="G78">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2491,22 +2491,22 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C79">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D79">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F79">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2514,22 +2514,22 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E80">
         <v>41</v>
       </c>
       <c r="F80">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="G80">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2537,22 +2537,22 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D81">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E81">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F81">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G81">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2560,22 +2560,22 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C82">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D82">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E82">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="F82">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="G82">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2583,22 +2583,22 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D83">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F83">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2606,22 +2606,22 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C84">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D84">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="E84">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F84">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G84">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2629,22 +2629,22 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C85">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D85">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E85">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G85">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2652,22 +2652,22 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D86">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E86">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F86">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G86">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2675,22 +2675,22 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C87">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D87">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F87">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G87">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2698,22 +2698,22 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C88">
+        <v>21</v>
+      </c>
+      <c r="D88">
+        <v>46</v>
+      </c>
+      <c r="E88">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>27</v>
+      </c>
+      <c r="G88">
         <v>12</v>
-      </c>
-      <c r="D88">
-        <v>86</v>
-      </c>
-      <c r="E88">
-        <v>37</v>
-      </c>
-      <c r="F88">
-        <v>36</v>
-      </c>
-      <c r="G88">
-        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2721,22 +2721,22 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C89">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="E89">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F89">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G89">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2744,22 +2744,22 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C90">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D90">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E90">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F90">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G90">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2767,22 +2767,22 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C91">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D91">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E91">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F91">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G91">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2790,22 +2790,22 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D92">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="E92">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F92">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G92">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2813,22 +2813,22 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E93">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F93">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="G93">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2836,22 +2836,22 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C94">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D94">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E94">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G94">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2859,22 +2859,22 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C95">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D95">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E95">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F95">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2882,22 +2882,22 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D96">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E96">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F96">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G96">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2905,22 +2905,22 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C97">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D97">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E97">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F97">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="G97">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2928,22 +2928,22 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C98">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E98">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="F98">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="G98">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2951,22 +2951,22 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C99">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D99">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E99">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F99">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2974,22 +2974,22 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C100">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="D100">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F100">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G100">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2997,22 +2997,22 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C101">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D101">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E101">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F101">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G101">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/mallows_utilities_voters=100_projects=6.xlsx
+++ b/data/mallows_utilities_voters=100_projects=6.xlsx
@@ -720,22 +720,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -743,22 +743,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -766,22 +766,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F4">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -789,22 +789,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F5">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -812,19 +812,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -835,22 +835,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G7">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -858,22 +858,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -881,22 +881,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -904,22 +904,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -927,22 +927,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
         <v>75</v>
-      </c>
-      <c r="G11">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -950,22 +950,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C12">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F12">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -973,22 +973,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="G13">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -996,22 +996,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E14">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F14">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1019,22 +1019,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D15">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G15">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1042,22 +1042,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E16">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G16">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1065,22 +1065,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1088,22 +1088,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F18">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1111,22 +1111,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C19">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="F19">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G19">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1134,22 +1134,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F20">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1157,22 +1157,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="C21">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1180,22 +1180,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F22">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="G22">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1203,22 +1203,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1226,22 +1226,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="F24">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G24">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1249,22 +1249,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C25">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E25">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1272,22 +1272,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C26">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E26">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F26">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G26">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1295,22 +1295,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C27">
+        <v>98</v>
+      </c>
+      <c r="D27">
+        <v>43</v>
+      </c>
+      <c r="E27">
         <v>75</v>
       </c>
-      <c r="D27">
-        <v>48</v>
-      </c>
-      <c r="E27">
-        <v>28</v>
-      </c>
       <c r="F27">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G27">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1318,22 +1318,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C28">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="E28">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F28">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G28">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1341,22 +1341,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C29">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D29">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G29">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1364,22 +1364,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C30">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E30">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F30">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G30">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1387,22 +1387,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F31">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G31">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1410,22 +1410,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C32">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D32">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E32">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="G32">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1433,22 +1433,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E33">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1456,22 +1456,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="E34">
         <v>77</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
       <c r="F34">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="G34">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1479,22 +1479,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F35">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1502,22 +1502,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C36">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E36">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="F36">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G36">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1525,22 +1525,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="C37">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G37">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1548,22 +1548,22 @@
         <v>42</v>
       </c>
       <c r="B38">
+        <v>83</v>
+      </c>
+      <c r="C38">
+        <v>47</v>
+      </c>
+      <c r="D38">
+        <v>49</v>
+      </c>
+      <c r="E38">
         <v>87</v>
       </c>
-      <c r="C38">
-        <v>92</v>
-      </c>
-      <c r="D38">
-        <v>87</v>
-      </c>
-      <c r="E38">
-        <v>12</v>
-      </c>
       <c r="F38">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="G38">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1571,22 +1571,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F39">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G39">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1594,22 +1594,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="F40">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G40">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1617,22 +1617,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C41">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F41">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1640,22 +1640,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C42">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F42">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G42">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1663,22 +1663,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C43">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E43">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F43">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="G43">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1686,22 +1686,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>64</v>
+      </c>
+      <c r="F44">
+        <v>47</v>
+      </c>
+      <c r="G44">
         <v>69</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44">
-        <v>62</v>
-      </c>
-      <c r="F44">
-        <v>29</v>
-      </c>
-      <c r="G44">
-        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1709,22 +1709,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C45">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="D45">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="G45">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1732,22 +1732,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C46">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F46">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="G46">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1755,22 +1755,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E47">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G47">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1778,22 +1778,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C48">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D48">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E48">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F48">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G48">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1801,22 +1801,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C49">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E49">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F49">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="G49">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1824,22 +1824,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D50">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E50">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F50">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1847,22 +1847,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C51">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E51">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F51">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G51">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1870,22 +1870,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D52">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F52">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="G52">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1893,22 +1893,22 @@
         <v>57</v>
       </c>
       <c r="B53">
+        <v>70</v>
+      </c>
+      <c r="C53">
+        <v>49</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
         <v>88</v>
       </c>
-      <c r="C53">
-        <v>70</v>
-      </c>
-      <c r="D53">
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53">
         <v>23</v>
-      </c>
-      <c r="E53">
-        <v>70</v>
-      </c>
-      <c r="F53">
-        <v>68</v>
-      </c>
-      <c r="G53">
-        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1916,22 +1916,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E54">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="G54">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1939,22 +1939,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="D55">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E55">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F55">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G55">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1962,22 +1962,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C56">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D56">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F56">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1985,22 +1985,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D57">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E57">
+        <v>33</v>
+      </c>
+      <c r="F57">
+        <v>82</v>
+      </c>
+      <c r="G57">
         <v>43</v>
-      </c>
-      <c r="F57">
-        <v>12</v>
-      </c>
-      <c r="G57">
-        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2008,22 +2008,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C58">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D58">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F58">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G58">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2031,22 +2031,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D59">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E59">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F59">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G59">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2054,22 +2054,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F60">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2077,22 +2077,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C61">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E61">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G61">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2100,22 +2100,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C62">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D62">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E62">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F62">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G62">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2123,22 +2123,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C63">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E63">
+        <v>15</v>
+      </c>
+      <c r="F63">
+        <v>35</v>
+      </c>
+      <c r="G63">
         <v>9</v>
-      </c>
-      <c r="F63">
-        <v>92</v>
-      </c>
-      <c r="G63">
-        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2146,22 +2146,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C64">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D64">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E64">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F64">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="G64">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2169,22 +2169,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C65">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="E65">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="G65">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2192,22 +2192,22 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C66">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="E66">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F66">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G66">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2215,22 +2215,22 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C67">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
       <c r="F67">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G67">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2238,22 +2238,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C68">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E68">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F68">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,22 +2261,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C69">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="D69">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E69">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F69">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G69">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2284,22 +2284,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C70">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D70">
         <v>56</v>
       </c>
       <c r="E70">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F70">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G70">
-        <v>69</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2307,22 +2307,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C71">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D71">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="G71">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2330,22 +2330,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C72">
+        <v>98</v>
+      </c>
+      <c r="D72">
+        <v>59</v>
+      </c>
+      <c r="E72">
+        <v>47</v>
+      </c>
+      <c r="F72">
         <v>62</v>
       </c>
-      <c r="D72">
-        <v>68</v>
-      </c>
-      <c r="E72">
-        <v>26</v>
-      </c>
-      <c r="F72">
-        <v>13</v>
-      </c>
       <c r="G72">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2353,22 +2353,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C73">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D73">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E73">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F73">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G73">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2376,22 +2376,22 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C74">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F74">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G74">
-        <v>6</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2399,22 +2399,22 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C75">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D75">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E75">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F75">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G75">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2422,22 +2422,22 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D76">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E76">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F76">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="G76">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2445,22 +2445,22 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C77">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E77">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F77">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G77">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2468,22 +2468,22 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D78">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E78">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F78">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G78">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2491,22 +2491,22 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C79">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D79">
         <v>5</v>
       </c>
       <c r="E79">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="G79">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2514,22 +2514,22 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E80">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F80">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="G80">
-        <v>37</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2537,22 +2537,22 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C81">
+        <v>31</v>
+      </c>
+      <c r="D81">
+        <v>35</v>
+      </c>
+      <c r="E81">
+        <v>60</v>
+      </c>
+      <c r="F81">
+        <v>89</v>
+      </c>
+      <c r="G81">
         <v>99</v>
-      </c>
-      <c r="D81">
-        <v>48</v>
-      </c>
-      <c r="E81">
-        <v>26</v>
-      </c>
-      <c r="F81">
-        <v>54</v>
-      </c>
-      <c r="G81">
-        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2560,22 +2560,22 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C82">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D82">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E82">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F82">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="G82">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2583,22 +2583,22 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C83">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="G83">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2606,22 +2606,22 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D84">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E84">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F84">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G84">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2629,22 +2629,22 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C85">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D85">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F85">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="G85">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2652,22 +2652,22 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C86">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D86">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F86">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G86">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2675,22 +2675,22 @@
         <v>91</v>
       </c>
       <c r="B87">
+        <v>35</v>
+      </c>
+      <c r="C87">
         <v>84</v>
       </c>
-      <c r="C87">
-        <v>80</v>
-      </c>
       <c r="D87">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E87">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F87">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G87">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2698,22 +2698,22 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C88">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D88">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E88">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F88">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G88">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2721,22 +2721,22 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C89">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E89">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F89">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G89">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2744,22 +2744,22 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C90">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E90">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="F90">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G90">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2767,22 +2767,22 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C91">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D91">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E91">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F91">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="G91">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2790,22 +2790,22 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D92">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F92">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G92">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2813,22 +2813,22 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C93">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D93">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E93">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F93">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G93">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2836,22 +2836,22 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C94">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D94">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E94">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F94">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G94">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2859,22 +2859,22 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C95">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D95">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E95">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F95">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G95">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2882,22 +2882,22 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D96">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F96">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G96">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2905,22 +2905,22 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C97">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D97">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E97">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="G97">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2928,22 +2928,22 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C98">
+        <v>82</v>
+      </c>
+      <c r="D98">
+        <v>32</v>
+      </c>
+      <c r="E98">
+        <v>65</v>
+      </c>
+      <c r="F98">
         <v>96</v>
       </c>
-      <c r="D98">
-        <v>12</v>
-      </c>
-      <c r="E98">
-        <v>17</v>
-      </c>
-      <c r="F98">
-        <v>8</v>
-      </c>
       <c r="G98">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2951,22 +2951,22 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="C99">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="D99">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E99">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G99">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2974,22 +2974,22 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C100">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E100">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F100">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G100">
-        <v>86</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2997,22 +2997,22 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D101">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E101">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F101">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G101">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/mallows_utilities_voters=100_projects=6.xlsx
+++ b/data/mallows_utilities_voters=100_projects=6.xlsx
@@ -473,22 +473,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F4" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -548,22 +548,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -573,22 +573,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -598,22 +598,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C7" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
         <v>17</v>
       </c>
-      <c r="E7" t="n">
-        <v>12</v>
-      </c>
       <c r="F7" t="n">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -623,22 +623,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="G8" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F9" t="n">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>53</v>
+      </c>
+      <c r="C12" t="n">
+        <v>71</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>31</v>
+      </c>
+      <c r="F12" t="n">
         <v>60</v>
       </c>
-      <c r="C12" t="n">
-        <v>16</v>
-      </c>
-      <c r="D12" t="n">
-        <v>34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>23</v>
-      </c>
-      <c r="F12" t="n">
-        <v>90</v>
-      </c>
       <c r="G12" t="n">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -748,22 +748,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F13" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G13" t="n">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -798,22 +798,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F15" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="D17" t="n">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="G17" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E18" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -898,22 +898,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D19" t="n">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E19" t="n">
+        <v>24</v>
+      </c>
+      <c r="F19" t="n">
         <v>25</v>
       </c>
-      <c r="F19" t="n">
-        <v>72</v>
-      </c>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D20" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="F20" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G20" t="n">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D21" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -973,22 +973,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D22" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F22" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G22" t="n">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -998,22 +998,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E23" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -1023,22 +1023,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C24" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="F24" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G24" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C25" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="D25" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F25" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -1073,22 +1073,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C26" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D26" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F26" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G26" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -1098,22 +1098,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C27" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E27" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F27" t="n">
+        <v>75</v>
+      </c>
+      <c r="G27" t="n">
         <v>89</v>
-      </c>
-      <c r="G27" t="n">
-        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C28" t="n">
         <v>81</v>
       </c>
       <c r="D28" t="n">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F28" t="n">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G28" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1148,22 +1148,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D29" t="n">
+        <v>17</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="n">
         <v>31</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>86</v>
-      </c>
       <c r="G29" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -1173,22 +1173,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="E30" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F30" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G30" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -1198,22 +1198,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="D31" t="n">
-        <v>69</v>
-      </c>
       <c r="E31" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C32" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D32" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F32" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G32" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
@@ -1248,22 +1248,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D33" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G33" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -1273,22 +1273,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D34" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E34" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -1298,22 +1298,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="D35" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F35" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G35" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
@@ -1323,22 +1323,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E36" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E37" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F37" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
@@ -1373,22 +1373,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
         <v>26</v>
       </c>
-      <c r="C38" t="n">
-        <v>52</v>
-      </c>
       <c r="D38" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F38" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G38" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -1398,22 +1398,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D39" t="n">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F39" t="n">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="G39" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
@@ -1423,22 +1423,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C40" t="n">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D40" t="n">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E40" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F40" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G40" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D41" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F41" t="n">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
@@ -1473,22 +1473,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D42" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E42" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F42" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G42" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43">
@@ -1498,22 +1498,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C43" t="n">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E43" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F43" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C44" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F44" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G44" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>49</v>
+      </c>
+      <c r="C45" t="n">
+        <v>75</v>
+      </c>
+      <c r="D45" t="n">
+        <v>67</v>
+      </c>
+      <c r="E45" t="n">
+        <v>43</v>
+      </c>
+      <c r="F45" t="n">
         <v>64</v>
       </c>
-      <c r="C45" t="n">
-        <v>19</v>
-      </c>
-      <c r="D45" t="n">
-        <v>31</v>
-      </c>
-      <c r="E45" t="n">
-        <v>22</v>
-      </c>
-      <c r="F45" t="n">
-        <v>95</v>
-      </c>
       <c r="G45" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D46" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="E46" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F46" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G46" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47">
@@ -1598,22 +1598,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E47" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F47" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="G47" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C48" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D48" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="E48" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G48" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
@@ -1648,22 +1648,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C49" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E49" t="n">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="G49" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D50" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E50" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F50" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G50" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51">
@@ -1698,22 +1698,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C51" t="n">
+        <v>77</v>
+      </c>
+      <c r="D51" t="n">
         <v>11</v>
       </c>
-      <c r="D51" t="n">
-        <v>66</v>
-      </c>
       <c r="E51" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F51" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G51" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
@@ -1723,22 +1723,22 @@
         </is>
       </c>
       <c r="B52" t="n">
+        <v>23</v>
+      </c>
+      <c r="C52" t="n">
+        <v>24</v>
+      </c>
+      <c r="D52" t="n">
+        <v>17</v>
+      </c>
+      <c r="E52" t="n">
+        <v>20</v>
+      </c>
+      <c r="F52" t="n">
+        <v>23</v>
+      </c>
+      <c r="G52" t="n">
         <v>51</v>
-      </c>
-      <c r="C52" t="n">
-        <v>46</v>
-      </c>
-      <c r="D52" t="n">
-        <v>65</v>
-      </c>
-      <c r="E52" t="n">
-        <v>63</v>
-      </c>
-      <c r="F52" t="n">
-        <v>77</v>
-      </c>
-      <c r="G52" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -1748,22 +1748,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C53" t="n">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D53" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F53" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54">
@@ -1773,22 +1773,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E54" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="F54" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G54" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
@@ -1798,22 +1798,22 @@
         </is>
       </c>
       <c r="B55" t="n">
+        <v>91</v>
+      </c>
+      <c r="C55" t="n">
+        <v>64</v>
+      </c>
+      <c r="D55" t="n">
         <v>5</v>
       </c>
-      <c r="C55" t="n">
-        <v>75</v>
-      </c>
-      <c r="D55" t="n">
-        <v>57</v>
-      </c>
       <c r="E55" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C56" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E56" t="n">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F56" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -1848,22 +1848,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D57" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E57" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F57" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G57" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C58" t="n">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D58" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F58" t="n">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="G58" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D59" t="n">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="E59" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F59" t="n">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="G59" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C60" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D60" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F60" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G60" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1948,22 +1948,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C61" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D61" t="n">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F61" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G61" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C62" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G62" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63">
@@ -1998,22 +1998,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C63" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D63" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E63" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F63" t="n">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
@@ -2023,22 +2023,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C64" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D64" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="G64" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C65" t="n">
+        <v>58</v>
+      </c>
+      <c r="D65" t="n">
+        <v>28</v>
+      </c>
+      <c r="E65" t="n">
         <v>52</v>
       </c>
-      <c r="D65" t="n">
-        <v>32</v>
-      </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>21</v>
+      </c>
+      <c r="G65" t="n">
         <v>81</v>
-      </c>
-      <c r="F65" t="n">
-        <v>96</v>
-      </c>
-      <c r="G65" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="66">
@@ -2073,22 +2073,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D66" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F66" t="n">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="G66" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
@@ -2098,22 +2098,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="C67" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D67" t="n">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="E67" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F67" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="G67" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -2123,22 +2123,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C68" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="D68" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E68" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G68" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69">
@@ -2148,22 +2148,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="D69" t="n">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E69" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G69" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
@@ -2173,22 +2173,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D70" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="E70" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F70" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G70" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
@@ -2198,22 +2198,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C71" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D71" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E71" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F71" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
@@ -2223,22 +2223,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C72" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D72" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E72" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F72" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73">
@@ -2248,22 +2248,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C73" t="n">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="D73" t="n">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F73" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
@@ -2273,22 +2273,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C74" t="n">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D74" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E74" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F74" t="n">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="G74" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
@@ -2298,22 +2298,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C75" t="n">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D75" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E75" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G75" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76">
@@ -2323,22 +2323,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C76" t="n">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="D76" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F76" t="n">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="G76" t="n">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C77" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D77" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F77" t="n">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="G77" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -2373,22 +2373,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C78" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D78" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E78" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F78" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G78" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79">
@@ -2398,22 +2398,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D79" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="F79" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G79" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
@@ -2423,22 +2423,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C80" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D80" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="F80" t="n">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="G80" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81">
@@ -2448,22 +2448,22 @@
         </is>
       </c>
       <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>40</v>
+      </c>
+      <c r="D81" t="n">
+        <v>33</v>
+      </c>
+      <c r="E81" t="n">
+        <v>31</v>
+      </c>
+      <c r="F81" t="n">
+        <v>37</v>
+      </c>
+      <c r="G81" t="n">
         <v>87</v>
-      </c>
-      <c r="C81" t="n">
-        <v>4</v>
-      </c>
-      <c r="D81" t="n">
-        <v>68</v>
-      </c>
-      <c r="E81" t="n">
-        <v>63</v>
-      </c>
-      <c r="F81" t="n">
-        <v>69</v>
-      </c>
-      <c r="G81" t="n">
-        <v>94</v>
       </c>
     </row>
     <row r="82">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C82" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F82" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G82" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83">
@@ -2498,22 +2498,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C83" t="n">
+        <v>84</v>
+      </c>
+      <c r="D83" t="n">
         <v>22</v>
       </c>
-      <c r="D83" t="n">
-        <v>3</v>
-      </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F83" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G83" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
@@ -2523,19 +2523,19 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C84" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E84" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G84" t="n">
         <v>95</v>
@@ -2548,22 +2548,22 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C85" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D85" t="n">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E85" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F85" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="G85" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
@@ -2573,22 +2573,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C86" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F86" t="n">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G86" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87">
@@ -2598,22 +2598,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C87" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D87" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="E87" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F87" t="n">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="G87" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88">
@@ -2623,22 +2623,22 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C88" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D88" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E88" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F88" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="G88" t="n">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
@@ -2648,22 +2648,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C89" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D89" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="F89" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G89" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
@@ -2673,22 +2673,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C90" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D90" t="n">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E90" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="F90" t="n">
         <v>56</v>
       </c>
       <c r="G90" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91">
@@ -2698,22 +2698,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C91" t="n">
+        <v>73</v>
+      </c>
+      <c r="D91" t="n">
+        <v>48</v>
+      </c>
+      <c r="E91" t="n">
+        <v>9</v>
+      </c>
+      <c r="F91" t="n">
         <v>41</v>
       </c>
-      <c r="D91" t="n">
-        <v>64</v>
-      </c>
-      <c r="E91" t="n">
-        <v>10</v>
-      </c>
-      <c r="F91" t="n">
-        <v>51</v>
-      </c>
       <c r="G91" t="n">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92">
@@ -2723,22 +2723,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C92" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D92" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E92" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G92" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C93" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E93" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F93" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G93" t="n">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C94" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D94" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="E94" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F94" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G94" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95">
@@ -2798,22 +2798,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D95" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G95" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96">
@@ -2823,22 +2823,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D96" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E96" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F96" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97">
@@ -2848,22 +2848,22 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C97" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D97" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F97" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="G97" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D98" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F98" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G98" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99">
@@ -2898,22 +2898,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D99" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E99" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F99" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G99" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
@@ -2923,22 +2923,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C100" t="n">
         <v>51</v>
       </c>
       <c r="D100" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E100" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F100" t="n">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="G100" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101">
@@ -2948,22 +2948,22 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C101" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D101" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E101" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F101" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G101" t="n">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/mallows_utilities_voters=100_projects=6.xlsx
+++ b/data/mallows_utilities_voters=100_projects=6.xlsx
@@ -473,22 +473,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -548,22 +548,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -573,22 +573,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -598,22 +598,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -623,22 +623,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C10" t="n">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C11" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D11" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -723,22 +723,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C12" t="n">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F12" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -748,22 +748,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C13" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E13" t="n">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G13" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C14" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -798,22 +798,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C15" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D15" t="n">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C16" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
+        <v>98</v>
+      </c>
+      <c r="E16" t="n">
+        <v>36</v>
+      </c>
+      <c r="F16" t="n">
         <v>43</v>
       </c>
-      <c r="E16" t="n">
-        <v>45</v>
-      </c>
-      <c r="F16" t="n">
-        <v>29</v>
-      </c>
       <c r="G16" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C17" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D17" t="n">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -898,22 +898,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F19" t="n">
+        <v>30</v>
+      </c>
+      <c r="G19" t="n">
         <v>74</v>
-      </c>
-      <c r="G19" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C20" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D20" t="n">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="G20" t="n">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F21" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -973,22 +973,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>42</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>65</v>
+      </c>
+      <c r="G22" t="n">
         <v>85</v>
-      </c>
-      <c r="D22" t="n">
-        <v>68</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10</v>
-      </c>
-      <c r="F22" t="n">
-        <v>49</v>
-      </c>
-      <c r="G22" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -998,22 +998,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C23" t="n">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E23" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -1023,22 +1023,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C24" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E24" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C25" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
@@ -1073,22 +1073,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F26" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G26" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -1098,22 +1098,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F27" t="n">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G27" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C28" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F28" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -1148,22 +1148,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="C29" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D29" t="n">
         <v>52</v>
       </c>
       <c r="E29" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -1173,22 +1173,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>35</v>
+      </c>
+      <c r="E30" t="n">
+        <v>66</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7</v>
+      </c>
+      <c r="G30" t="n">
         <v>88</v>
-      </c>
-      <c r="D30" t="n">
-        <v>60</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8</v>
-      </c>
-      <c r="F30" t="n">
-        <v>30</v>
-      </c>
-      <c r="G30" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -1198,22 +1198,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E31" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="E32" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33">
@@ -1248,22 +1248,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C33" t="n">
+        <v>33</v>
+      </c>
+      <c r="D33" t="n">
+        <v>51</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15</v>
+      </c>
+      <c r="F33" t="n">
+        <v>29</v>
+      </c>
+      <c r="G33" t="n">
         <v>82</v>
-      </c>
-      <c r="D33" t="n">
-        <v>61</v>
-      </c>
-      <c r="E33" t="n">
-        <v>11</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="34">
@@ -1273,22 +1273,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C34" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G34" t="n">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -1298,22 +1298,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C35" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E35" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F35" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1323,22 +1323,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C36" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D36" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E36" t="n">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="G36" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C37" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D37" t="n">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G37" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -1373,22 +1373,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C38" t="n">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D38" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F38" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G38" t="n">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -1398,22 +1398,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C39" t="n">
         <v>86</v>
       </c>
       <c r="D39" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E39" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G39" t="n">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
@@ -1423,22 +1423,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C40" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D40" t="n">
+        <v>14</v>
+      </c>
+      <c r="E40" t="n">
+        <v>21</v>
+      </c>
+      <c r="F40" t="n">
+        <v>73</v>
+      </c>
+      <c r="G40" t="n">
         <v>85</v>
-      </c>
-      <c r="E40" t="n">
-        <v>97</v>
-      </c>
-      <c r="F40" t="n">
-        <v>78</v>
-      </c>
-      <c r="G40" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C41" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D41" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E41" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F41" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G41" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
@@ -1473,22 +1473,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C42" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="E42" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F42" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
@@ -1498,22 +1498,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C43" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E43" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F43" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G43" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C44" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G44" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C45" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F45" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G45" t="n">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C46" t="n">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D46" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E46" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G46" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
@@ -1598,22 +1598,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C47" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C48" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F48" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49">
@@ -1648,22 +1648,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C49" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D49" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F49" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C50" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D50" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E50" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G50" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -1698,22 +1698,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C51" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D51" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E51" t="n">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G51" t="n">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
@@ -1723,22 +1723,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C52" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D52" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E52" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F52" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G52" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
@@ -1748,22 +1748,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D53" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E53" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F53" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
@@ -1773,22 +1773,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C54" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D54" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E54" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F54" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>81</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -1798,22 +1798,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="C55" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D55" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E55" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G55" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57">
@@ -1848,22 +1848,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C57" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D57" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E57" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="B58" t="n">
+        <v>39</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11</v>
+      </c>
+      <c r="D58" t="n">
+        <v>92</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>76</v>
+      </c>
+      <c r="G58" t="n">
         <v>50</v>
-      </c>
-      <c r="C58" t="n">
-        <v>47</v>
-      </c>
-      <c r="D58" t="n">
-        <v>9</v>
-      </c>
-      <c r="E58" t="n">
-        <v>26</v>
-      </c>
-      <c r="F58" t="n">
-        <v>22</v>
-      </c>
-      <c r="G58" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C59" t="n">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D59" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E59" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="G59" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C60" t="n">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D60" t="n">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="F60" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G60" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
@@ -1948,22 +1948,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C61" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D61" t="n">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="E61" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F61" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="B62" t="n">
+        <v>30</v>
+      </c>
+      <c r="C62" t="n">
+        <v>58</v>
+      </c>
+      <c r="D62" t="n">
+        <v>99</v>
+      </c>
+      <c r="E62" t="n">
+        <v>96</v>
+      </c>
+      <c r="F62" t="n">
         <v>29</v>
       </c>
-      <c r="C62" t="n">
-        <v>75</v>
-      </c>
-      <c r="D62" t="n">
-        <v>14</v>
-      </c>
-      <c r="E62" t="n">
-        <v>3</v>
-      </c>
-      <c r="F62" t="n">
-        <v>88</v>
-      </c>
       <c r="G62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -1998,22 +1998,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C63" t="n">
+        <v>39</v>
+      </c>
+      <c r="D63" t="n">
+        <v>45</v>
+      </c>
+      <c r="E63" t="n">
         <v>29</v>
       </c>
-      <c r="D63" t="n">
-        <v>74</v>
-      </c>
-      <c r="E63" t="n">
-        <v>47</v>
-      </c>
       <c r="F63" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G63" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
@@ -2023,22 +2023,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C64" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D64" t="n">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F64" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C65" t="n">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D65" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66">
@@ -2073,22 +2073,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C66" t="n">
+        <v>85</v>
+      </c>
+      <c r="D66" t="n">
         <v>32</v>
       </c>
-      <c r="D66" t="n">
-        <v>4</v>
-      </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="F66" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G66" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
@@ -2098,22 +2098,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C67" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E67" t="n">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G67" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
@@ -2123,22 +2123,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F68" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G68" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69">
@@ -2148,22 +2148,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C69" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E69" t="n">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="F69" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G69" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
@@ -2173,22 +2173,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C70" t="n">
         <v>98</v>
       </c>
       <c r="D70" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E70" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F70" t="n">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="G70" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71">
@@ -2198,22 +2198,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C71" t="n">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D71" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G71" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72">
@@ -2223,22 +2223,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C72" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D72" t="n">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E72" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F72" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
@@ -2248,22 +2248,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C73" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="D73" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E73" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G73" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74">
@@ -2276,19 +2276,19 @@
         <v>91</v>
       </c>
       <c r="C74" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D74" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E74" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="F74" t="n">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="G74" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75">
@@ -2298,22 +2298,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C75" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E75" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G75" t="n">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
@@ -2323,22 +2323,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C76" t="n">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D76" t="n">
+        <v>7</v>
+      </c>
+      <c r="E76" t="n">
+        <v>41</v>
+      </c>
+      <c r="F76" t="n">
+        <v>81</v>
+      </c>
+      <c r="G76" t="n">
         <v>94</v>
-      </c>
-      <c r="E76" t="n">
-        <v>79</v>
-      </c>
-      <c r="F76" t="n">
-        <v>47</v>
-      </c>
-      <c r="G76" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -2348,22 +2348,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C77" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D77" t="n">
+        <v>74</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="n">
         <v>11</v>
-      </c>
-      <c r="E77" t="n">
-        <v>54</v>
-      </c>
-      <c r="F77" t="n">
-        <v>57</v>
-      </c>
-      <c r="G77" t="n">
-        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -2373,22 +2373,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E78" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F78" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -2398,22 +2398,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C79" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D79" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E79" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="G79" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -2423,22 +2423,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="C80" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D80" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E80" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F80" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="G80" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81">
@@ -2448,22 +2448,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C81" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D81" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E81" t="n">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G81" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C82" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83">
@@ -2498,22 +2498,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C83" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D83" t="n">
+        <v>76</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" t="n">
         <v>88</v>
-      </c>
-      <c r="E83" t="n">
-        <v>11</v>
-      </c>
-      <c r="F83" t="n">
-        <v>97</v>
-      </c>
-      <c r="G83" t="n">
-        <v>97</v>
       </c>
     </row>
     <row r="84">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E84" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G84" t="n">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85">
@@ -2548,22 +2548,22 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D85" t="n">
+        <v>83</v>
+      </c>
+      <c r="E85" t="n">
         <v>18</v>
       </c>
-      <c r="E85" t="n">
-        <v>66</v>
-      </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G85" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86">
@@ -2573,22 +2573,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C86" t="n">
         <v>22</v>
       </c>
       <c r="D86" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E86" t="n">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F86" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G86" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -2598,22 +2598,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C87" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D87" t="n">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G87" t="n">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88">
@@ -2623,19 +2623,19 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="C88" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D88" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E88" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F88" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G88" t="n">
         <v>66</v>
@@ -2648,22 +2648,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E89" t="n">
+        <v>8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>62</v>
+      </c>
+      <c r="G89" t="n">
         <v>5</v>
-      </c>
-      <c r="F89" t="n">
-        <v>60</v>
-      </c>
-      <c r="G89" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -2673,22 +2673,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C90" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D90" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E90" t="n">
+        <v>32</v>
+      </c>
+      <c r="F90" t="n">
+        <v>50</v>
+      </c>
+      <c r="G90" t="n">
         <v>4</v>
-      </c>
-      <c r="F90" t="n">
-        <v>5</v>
-      </c>
-      <c r="G90" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -2698,22 +2698,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C91" t="n">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E91" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G91" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92">
@@ -2723,22 +2723,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C92" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D92" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E92" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="F92" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G92" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="B93" t="n">
+        <v>19</v>
+      </c>
+      <c r="C93" t="n">
+        <v>18</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6</v>
+      </c>
+      <c r="E93" t="n">
         <v>30</v>
       </c>
-      <c r="C93" t="n">
-        <v>63</v>
-      </c>
-      <c r="D93" t="n">
-        <v>27</v>
-      </c>
-      <c r="E93" t="n">
-        <v>95</v>
-      </c>
       <c r="F93" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C94" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D94" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E94" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F94" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G94" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95">
@@ -2798,22 +2798,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C95" t="n">
         <v>74</v>
       </c>
       <c r="D95" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E95" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F95" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2823,22 +2823,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C96" t="n">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D96" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E96" t="n">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="F96" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97">
@@ -2848,22 +2848,22 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C97" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D97" t="n">
+        <v>24</v>
+      </c>
+      <c r="E97" t="n">
+        <v>40</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" t="n">
         <v>30</v>
-      </c>
-      <c r="E97" t="n">
-        <v>53</v>
-      </c>
-      <c r="F97" t="n">
-        <v>32</v>
-      </c>
-      <c r="G97" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="98">
@@ -2873,22 +2873,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C98" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D98" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E98" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F98" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G98" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99">
@@ -2898,22 +2898,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D99" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="F99" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G99" t="n">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100">
@@ -2923,22 +2923,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C100" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D100" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E100" t="n">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F100" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G100" t="n">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
@@ -2948,22 +2948,22 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C101" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E101" t="n">
         <v>89</v>
       </c>
       <c r="F101" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G101" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/mallows_utilities_voters=100_projects=6.xlsx
+++ b/data/mallows_utilities_voters=100_projects=6.xlsx
@@ -720,22 +720,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E2">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -743,22 +743,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -766,22 +766,22 @@
         <v>8</v>
       </c>
       <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>66</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
       <c r="D4">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -789,22 +789,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E5">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F5">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -812,22 +812,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="G6">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -835,22 +835,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>19</v>
-      </c>
-      <c r="G7">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -858,22 +858,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -881,22 +881,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E9">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F9">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -904,22 +904,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E10">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F10">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -927,22 +927,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F11">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="G11">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -950,22 +950,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F12">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G12">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -973,22 +973,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E13">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -996,22 +996,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1019,22 +1019,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G15">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1042,22 +1042,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F16">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G16">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1065,22 +1065,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F17">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G17">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1088,22 +1088,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="G18">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1111,22 +1111,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1134,22 +1134,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E20">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F20">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G20">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1157,22 +1157,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D21">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E21">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G21">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1180,22 +1180,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1203,22 +1203,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F23">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="G23">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1226,22 +1226,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E24">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F24">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G24">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1249,22 +1249,22 @@
         <v>29</v>
       </c>
       <c r="B25">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>98</v>
+      </c>
+      <c r="F25">
         <v>6</v>
       </c>
-      <c r="C25">
-        <v>32</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>17</v>
-      </c>
-      <c r="F25">
-        <v>33</v>
-      </c>
       <c r="G25">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1272,22 +1272,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D26">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="E26">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G26">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1295,22 +1295,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E27">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F27">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G27">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1318,22 +1318,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F28">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="G28">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1341,22 +1341,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>84</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1364,22 +1364,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F30">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G30">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1390,19 +1390,19 @@
         <v>80</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="E31">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F31">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G31">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1410,22 +1410,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="E32">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F32">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G32">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1433,22 +1433,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C33">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E33">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="F33">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G33">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1456,22 +1456,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="F34">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1479,22 +1479,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C35">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E35">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F35">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1502,22 +1502,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E36">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F36">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G36">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1525,22 +1525,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E37">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F37">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G37">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1548,22 +1548,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C38">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F38">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="G38">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1571,22 +1571,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E39">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F39">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="G39">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1594,22 +1594,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C40">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E40">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F40">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="G40">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1617,22 +1617,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="E41">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F41">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1640,22 +1640,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>44</v>
       </c>
       <c r="D42">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="G42">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1663,22 +1663,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E43">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="F43">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G43">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1686,22 +1686,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D44">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="E44">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F44">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1709,22 +1709,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F45">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G45">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1732,22 +1732,22 @@
         <v>50</v>
       </c>
       <c r="B46">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>83</v>
+      </c>
+      <c r="D46">
+        <v>55</v>
+      </c>
+      <c r="E46">
         <v>68</v>
       </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-      <c r="D46">
-        <v>31</v>
-      </c>
-      <c r="E46">
-        <v>75</v>
-      </c>
       <c r="F46">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G46">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1755,22 +1755,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E47">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F47">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G47">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1778,22 +1778,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E48">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F48">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G48">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1801,22 +1801,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C49">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D49">
+        <v>91</v>
+      </c>
+      <c r="E49">
         <v>1</v>
-      </c>
-      <c r="E49">
-        <v>87</v>
       </c>
       <c r="F49">
         <v>23</v>
       </c>
       <c r="G49">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1824,22 +1824,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E50">
         <v>97</v>
       </c>
       <c r="F50">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="G50">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1847,22 +1847,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E51">
         <v>91</v>
       </c>
       <c r="F51">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G51">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1870,22 +1870,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C52">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D52">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E52">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G52">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1893,22 +1893,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E53">
         <v>99</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G53">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1916,22 +1916,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G54">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1939,22 +1939,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E55">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="G55">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1962,22 +1962,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C56">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E56">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F56">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G56">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1985,22 +1985,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C57">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E57">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="F57">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G57">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2008,22 +2008,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E58">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F58">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G58">
-        <v>92</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2031,22 +2031,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E59">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F59">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="G59">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2054,22 +2054,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C60">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E60">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G60">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2077,22 +2077,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C61">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D61">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E61">
         <v>75</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2100,22 +2100,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D62">
         <v>37</v>
       </c>
       <c r="E62">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G62">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2123,22 +2123,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C63">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E63">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F63">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="G63">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2146,22 +2146,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C64">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D64">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G64">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2169,22 +2169,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C65">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D65">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E65">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F65">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2192,22 +2192,22 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C66">
+        <v>85</v>
+      </c>
+      <c r="D66">
         <v>46</v>
       </c>
-      <c r="D66">
-        <v>18</v>
-      </c>
       <c r="E66">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F66">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G66">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2215,22 +2215,22 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C67">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D67">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E67">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F67">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G67">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2238,22 +2238,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C68">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D68">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E68">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="F68">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G68">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,22 +2261,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C69">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D69">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E69">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F69">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G69">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2284,22 +2284,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D70">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E70">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F70">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G70">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2307,22 +2307,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C71">
+        <v>72</v>
+      </c>
+      <c r="D71">
+        <v>60</v>
+      </c>
+      <c r="E71">
+        <v>92</v>
+      </c>
+      <c r="F71">
+        <v>67</v>
+      </c>
+      <c r="G71">
         <v>4</v>
-      </c>
-      <c r="D71">
-        <v>18</v>
-      </c>
-      <c r="E71">
-        <v>66</v>
-      </c>
-      <c r="F71">
-        <v>91</v>
-      </c>
-      <c r="G71">
-        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2330,22 +2330,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C72">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D72">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E72">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F72">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G72">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2353,19 +2353,19 @@
         <v>77</v>
       </c>
       <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
         <v>75</v>
       </c>
-      <c r="C73">
-        <v>41</v>
-      </c>
       <c r="D73">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E73">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G73">
         <v>39</v>
@@ -2376,22 +2376,22 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E74">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="F74">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="G74">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2399,22 +2399,22 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D75">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E75">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F75">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="G75">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2422,22 +2422,22 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C76">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D76">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E76">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F76">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="G76">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2445,22 +2445,22 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C77">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D77">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E77">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F77">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G77">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2468,22 +2468,22 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D78">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E78">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G78">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2491,22 +2491,22 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C79">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E79">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F79">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G79">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2514,22 +2514,22 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E80">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F80">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G80">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2537,22 +2537,22 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D81">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E81">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F81">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G81">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2560,22 +2560,22 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D82">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E82">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F82">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G82">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2583,22 +2583,22 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D83">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E83">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="G83">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2606,22 +2606,22 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C84">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D84">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="E84">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="F84">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G84">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2629,22 +2629,22 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C85">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E85">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F85">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G85">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2652,22 +2652,22 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C86">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D86">
         <v>29</v>
       </c>
       <c r="E86">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F86">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G86">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2675,22 +2675,22 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D87">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E87">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F87">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G87">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2698,22 +2698,22 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E88">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G88">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2721,22 +2721,22 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="C89">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D89">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E89">
         <v>33</v>
       </c>
       <c r="F89">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2744,22 +2744,22 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C90">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E90">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="F90">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G90">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2767,22 +2767,22 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C91">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D91">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G91">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2790,22 +2790,22 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D92">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E92">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F92">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2813,22 +2813,22 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C93">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E93">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F93">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G93">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2836,22 +2836,22 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D94">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E94">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F94">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="G94">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2859,22 +2859,22 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F95">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G95">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2882,22 +2882,22 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C96">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="D96">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="F96">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G96">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2905,22 +2905,22 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C97">
+        <v>17</v>
+      </c>
+      <c r="D97">
         <v>36</v>
       </c>
-      <c r="D97">
-        <v>41</v>
-      </c>
       <c r="E97">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F97">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G97">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2928,22 +2928,22 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C98">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D98">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E98">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F98">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G98">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2951,22 +2951,22 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C99">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D99">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E99">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F99">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G99">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2974,22 +2974,22 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C100">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D100">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="E100">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F100">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="G100">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2997,22 +2997,22 @@
         <v>105</v>
       </c>
       <c r="B101">
+        <v>82</v>
+      </c>
+      <c r="C101">
+        <v>64</v>
+      </c>
+      <c r="D101">
+        <v>84</v>
+      </c>
+      <c r="E101">
         <v>91</v>
       </c>
-      <c r="C101">
-        <v>54</v>
-      </c>
-      <c r="D101">
-        <v>64</v>
-      </c>
-      <c r="E101">
-        <v>70</v>
-      </c>
       <c r="F101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G101">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/mallows_utilities_voters=100_projects=6.xlsx
+++ b/data/mallows_utilities_voters=100_projects=6.xlsx
@@ -720,22 +720,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C2">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -743,22 +743,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="F3">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -766,22 +766,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -789,22 +789,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F5">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -812,22 +812,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F6">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -835,22 +835,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -858,22 +858,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E8">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G8">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -881,22 +881,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -904,22 +904,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D10">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E10">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -927,22 +927,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E11">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G11">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -950,22 +950,22 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E12">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G12">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -973,22 +973,22 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
         <v>20</v>
       </c>
-      <c r="F13">
-        <v>27</v>
-      </c>
       <c r="G13">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -996,22 +996,22 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="E14">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1019,22 +1019,22 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F15">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1042,22 +1042,22 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E16">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F16">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="G16">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1065,22 +1065,22 @@
         <v>21</v>
       </c>
       <c r="B17">
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <v>76</v>
+      </c>
+      <c r="D17">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>32</v>
+      </c>
+      <c r="F17">
         <v>15</v>
       </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>82</v>
-      </c>
-      <c r="E17">
-        <v>88</v>
-      </c>
-      <c r="F17">
-        <v>84</v>
-      </c>
       <c r="G17">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1088,22 +1088,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F18">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="G18">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1111,22 +1111,22 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C19">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E19">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F19">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1134,22 +1134,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E20">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F20">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1157,22 +1157,22 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G21">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1180,22 +1180,22 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E22">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G22">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1203,22 +1203,22 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E23">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F23">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1226,22 +1226,22 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="E24">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>82</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1249,22 +1249,22 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G25">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1272,22 +1272,22 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F26">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1295,22 +1295,22 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F27">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G27">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1318,22 +1318,22 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E28">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F28">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G28">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1341,22 +1341,22 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D29">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1364,22 +1364,22 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E30">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F30">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G30">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1387,22 +1387,22 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D31">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E31">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F31">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G31">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1410,22 +1410,22 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F32">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="G32">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1433,22 +1433,22 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1456,22 +1456,22 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C34">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>96</v>
       </c>
       <c r="E34">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1479,22 +1479,22 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E35">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G35">
-        <v>31</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1502,22 +1502,22 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D36">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E36">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1525,22 +1525,22 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D37">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E37">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="F37">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G37">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1548,22 +1548,22 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E38">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="F38">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1571,22 +1571,22 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D39">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E39">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F39">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1594,22 +1594,22 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E40">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F40">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1617,22 +1617,22 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C41">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D41">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="G41">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1640,22 +1640,22 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F42">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1663,22 +1663,22 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D43">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E43">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F43">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G43">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1686,22 +1686,22 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G44">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1709,22 +1709,22 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E45">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F45">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1732,22 +1732,22 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E46">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F46">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G46">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1755,22 +1755,22 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E47">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F47">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G47">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1778,22 +1778,22 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E48">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G48">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1801,22 +1801,22 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D49">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F49">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G49">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1824,22 +1824,22 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="C50">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E50">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="F50">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="G50">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1847,22 +1847,22 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E51">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F51">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G51">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1870,22 +1870,22 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C52">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F52">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G52">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1893,22 +1893,22 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E53">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F53">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1916,22 +1916,22 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C54">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E54">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F54">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1939,22 +1939,22 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F55">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1962,22 +1962,22 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D56">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E56">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G56">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1985,22 +1985,22 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C57">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F57">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G57">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2008,22 +2008,22 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D58">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E58">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F58">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G58">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2031,22 +2031,22 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E59">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G59">
-        <v>13</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2054,22 +2054,22 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D60">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E60">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F60">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G60">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2077,22 +2077,22 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D61">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F61">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G61">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2100,22 +2100,22 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C62">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D62">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E62">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="F62">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="G62">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2123,22 +2123,22 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D63">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="E63">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2146,22 +2146,22 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C64">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E64">
+        <v>31</v>
+      </c>
+      <c r="F64">
         <v>70</v>
       </c>
-      <c r="F64">
-        <v>83</v>
-      </c>
       <c r="G64">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2169,22 +2169,22 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C65">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="F65">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G65">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2192,22 +2192,22 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C66">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D66">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E66">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G66">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2215,22 +2215,22 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D67">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E67">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F67">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G67">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2238,22 +2238,22 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C68">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D68">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E68">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F68">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,22 +2261,22 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F69">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G69">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2284,22 +2284,22 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C70">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D70">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E70">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="F70">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="G70">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2307,22 +2307,22 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D71">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E71">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F71">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2330,22 +2330,22 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C72">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
         <v>49</v>
       </c>
-      <c r="E72">
-        <v>65</v>
-      </c>
       <c r="F72">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G72">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2353,22 +2353,22 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C73">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D73">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E73">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G73">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2376,22 +2376,22 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E74">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F74">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G74">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2399,22 +2399,22 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C75">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D75">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E75">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F75">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G75">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2422,22 +2422,22 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
         <v>38</v>
-      </c>
-      <c r="F76">
-        <v>24</v>
-      </c>
-      <c r="G76">
-        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2445,22 +2445,22 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C77">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D77">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="F77">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G77">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2468,22 +2468,22 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C78">
+        <v>35</v>
+      </c>
+      <c r="D78">
+        <v>42</v>
+      </c>
+      <c r="E78">
         <v>45</v>
       </c>
-      <c r="D78">
-        <v>73</v>
-      </c>
-      <c r="E78">
-        <v>86</v>
-      </c>
       <c r="F78">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="G78">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2491,22 +2491,22 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D79">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E79">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F79">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G79">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2514,22 +2514,22 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C80">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E80">
         <v>93</v>
       </c>
       <c r="F80">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="G80">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2537,22 +2537,22 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D81">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E81">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F81">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G81">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2560,22 +2560,22 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C82">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E82">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F82">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2583,22 +2583,22 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C83">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E83">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F83">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G83">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2606,22 +2606,22 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C84">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D84">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E84">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="F84">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="G84">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2629,22 +2629,22 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C85">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D85">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="E85">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="F85">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G85">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2652,22 +2652,22 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C86">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D86">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E86">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="F86">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G86">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2675,22 +2675,22 @@
         <v>91</v>
       </c>
       <c r="B87">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>54</v>
+      </c>
+      <c r="F87">
+        <v>42</v>
+      </c>
+      <c r="G87">
         <v>60</v>
-      </c>
-      <c r="C87">
-        <v>72</v>
-      </c>
-      <c r="D87">
-        <v>45</v>
-      </c>
-      <c r="E87">
-        <v>44</v>
-      </c>
-      <c r="F87">
-        <v>63</v>
-      </c>
-      <c r="G87">
-        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2698,22 +2698,22 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C88">
+        <v>42</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
         <v>82</v>
       </c>
-      <c r="D88">
-        <v>36</v>
-      </c>
-      <c r="E88">
-        <v>7</v>
-      </c>
       <c r="F88">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G88">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2721,22 +2721,22 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C89">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D89">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="E89">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F89">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="G89">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2744,22 +2744,22 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E90">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F90">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2767,22 +2767,22 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C91">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D91">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F91">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="G91">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2790,22 +2790,22 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C92">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D92">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E92">
+        <v>41</v>
+      </c>
+      <c r="F92">
+        <v>59</v>
+      </c>
+      <c r="G92">
         <v>92</v>
-      </c>
-      <c r="F92">
-        <v>43</v>
-      </c>
-      <c r="G92">
-        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2813,22 +2813,22 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C93">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D93">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E93">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="F93">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G93">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2836,22 +2836,22 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C94">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E94">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F94">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G94">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2859,22 +2859,22 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C95">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D95">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F95">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="G95">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2882,22 +2882,22 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C96">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D96">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F96">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G96">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2905,22 +2905,22 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C97">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D97">
+        <v>25</v>
+      </c>
+      <c r="E97">
         <v>36</v>
       </c>
-      <c r="E97">
-        <v>88</v>
-      </c>
       <c r="F97">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G97">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2928,22 +2928,22 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D98">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E98">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F98">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="G98">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2951,22 +2951,22 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C99">
         <v>28</v>
       </c>
       <c r="D99">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F99">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G99">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2974,22 +2974,22 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C100">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D100">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E100">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F100">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="G100">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2997,22 +2997,22 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+      <c r="E101">
+        <v>79</v>
+      </c>
+      <c r="F101">
         <v>64</v>
       </c>
-      <c r="D101">
-        <v>84</v>
-      </c>
-      <c r="E101">
-        <v>91</v>
-      </c>
-      <c r="F101">
-        <v>2</v>
-      </c>
       <c r="G101">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
